--- a/ResultadoEleicoesDistritos/BEJA_BARRANCOS.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_BARRANCOS.xlsx
@@ -597,49 +597,49 @@
         <v>378</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>238</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
         <v>4</v>
